--- a/src/test/resources/testdata/seller1.xlsx
+++ b/src/test/resources/testdata/seller1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="214">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,6 +625,42 @@
   </si>
   <si>
     <t>A1DR4LJ36DU72H</t>
+  </si>
+  <si>
+    <t>30/10--0:29</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>1/11--21:6</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
+  </si>
+  <si>
+    <t>3/11--8:13</t>
+  </si>
+  <si>
+    <t>B000WG9JJU</t>
+  </si>
+  <si>
+    <t>B0BXM3JYKS</t>
+  </si>
+  <si>
+    <t>B0BWLDV74L</t>
   </si>
 </sst>
 </file>
@@ -664,12 +700,22 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -684,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -703,6 +749,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,51 +1111,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201:B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="17" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>20.05</v>
+      </c>
+      <c r="D3">
+        <v>20.05</v>
+      </c>
+      <c r="E3">
+        <v>20.05</v>
+      </c>
+      <c r="F3">
+        <v>20.05</v>
+      </c>
+      <c r="G3">
+        <v>20.05</v>
+      </c>
+      <c r="H3">
+        <v>20.05</v>
+      </c>
+      <c r="I3">
+        <v>20.05</v>
+      </c>
+      <c r="J3">
+        <v>20.05</v>
+      </c>
+      <c r="K3">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="D4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="E4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="F4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="G4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="H4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="I4" s="19">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="J4" s="29">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="K4">
+        <v>19.739999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1035,23 +1245,77 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>20.69</v>
+      </c>
+      <c r="D6">
+        <v>20.69</v>
+      </c>
+      <c r="E6">
+        <v>20.69</v>
+      </c>
+      <c r="F6">
+        <v>20.69</v>
+      </c>
+      <c r="G6">
+        <v>20.69</v>
+      </c>
+      <c r="H6">
+        <v>20.69</v>
+      </c>
+      <c r="I6">
+        <v>20.69</v>
+      </c>
+      <c r="J6">
+        <v>20.69</v>
+      </c>
+      <c r="K6">
+        <v>20.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="D7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="E7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="F7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="G7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="H7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="I7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="J7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="K7">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1059,15 +1323,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>20.9</v>
+      </c>
+      <c r="D9">
+        <v>20.9</v>
+      </c>
+      <c r="E9">
+        <v>20.9</v>
+      </c>
+      <c r="F9">
+        <v>20.9</v>
+      </c>
+      <c r="G9">
+        <v>20.9</v>
+      </c>
+      <c r="H9">
+        <v>20.9</v>
+      </c>
+      <c r="I9">
+        <v>20.9</v>
+      </c>
+      <c r="J9">
+        <v>20.9</v>
+      </c>
+      <c r="K9">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1075,159 +1366,672 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>18.3</v>
+      </c>
+      <c r="D11">
+        <v>18.3</v>
+      </c>
+      <c r="E11">
+        <v>18.3</v>
+      </c>
+      <c r="F11">
+        <v>18.3</v>
+      </c>
+      <c r="G11">
+        <v>18.3</v>
+      </c>
+      <c r="H11">
+        <v>18.3</v>
+      </c>
+      <c r="I11">
+        <v>18.3</v>
+      </c>
+      <c r="J11">
+        <v>18.3</v>
+      </c>
+      <c r="K11">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="D12">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E12">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="F12">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="G12">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="H12">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="I12">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="J12">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="K12">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>22.98</v>
+      </c>
+      <c r="D13">
+        <v>22.98</v>
+      </c>
+      <c r="E13">
+        <v>22.98</v>
+      </c>
+      <c r="F13">
+        <v>22.98</v>
+      </c>
+      <c r="G13">
+        <v>22.98</v>
+      </c>
+      <c r="H13">
+        <v>22.98</v>
+      </c>
+      <c r="I13">
+        <v>22.98</v>
+      </c>
+      <c r="J13">
+        <v>22.98</v>
+      </c>
+      <c r="K13">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>21.03</v>
+      </c>
+      <c r="D14">
+        <v>21.03</v>
+      </c>
+      <c r="E14">
+        <v>21.03</v>
+      </c>
+      <c r="F14">
+        <v>21.03</v>
+      </c>
+      <c r="G14">
+        <v>21.03</v>
+      </c>
+      <c r="H14">
+        <v>21.03</v>
+      </c>
+      <c r="I14">
+        <v>21.03</v>
+      </c>
+      <c r="J14">
+        <v>21.03</v>
+      </c>
+      <c r="K14">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>22.9</v>
+      </c>
+      <c r="D15">
+        <v>22.9</v>
+      </c>
+      <c r="E15">
+        <v>22.9</v>
+      </c>
+      <c r="F15">
+        <v>22.9</v>
+      </c>
+      <c r="G15">
+        <v>22.9</v>
+      </c>
+      <c r="H15">
+        <v>22.9</v>
+      </c>
+      <c r="I15">
+        <v>22.9</v>
+      </c>
+      <c r="J15">
+        <v>22.9</v>
+      </c>
+      <c r="K15">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>20.2</v>
+      </c>
+      <c r="D16">
+        <v>20.2</v>
+      </c>
+      <c r="E16">
+        <v>20.2</v>
+      </c>
+      <c r="F16">
+        <v>20.2</v>
+      </c>
+      <c r="G16">
+        <v>20.2</v>
+      </c>
+      <c r="H16">
+        <v>20.2</v>
+      </c>
+      <c r="I16">
+        <v>20.2</v>
+      </c>
+      <c r="J16">
+        <v>20.2</v>
+      </c>
+      <c r="K16">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K17">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>30.07</v>
+      </c>
+      <c r="D18">
+        <v>30.07</v>
+      </c>
+      <c r="E18">
+        <v>30.07</v>
+      </c>
+      <c r="F18">
+        <v>30.07</v>
+      </c>
+      <c r="G18">
+        <v>30.07</v>
+      </c>
+      <c r="H18">
+        <v>30.07</v>
+      </c>
+      <c r="I18">
+        <v>30.07</v>
+      </c>
+      <c r="J18">
+        <v>30.07</v>
+      </c>
+      <c r="K18">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>31.1</v>
+      </c>
+      <c r="D19">
+        <v>31.1</v>
+      </c>
+      <c r="E19">
+        <v>31.1</v>
+      </c>
+      <c r="F19">
+        <v>31.1</v>
+      </c>
+      <c r="G19">
+        <v>31.1</v>
+      </c>
+      <c r="H19">
+        <v>31.1</v>
+      </c>
+      <c r="I19">
+        <v>31.1</v>
+      </c>
+      <c r="J19" s="30">
+        <v>31.07</v>
+      </c>
+      <c r="K19">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>33.33</v>
+      </c>
+      <c r="D20">
+        <v>33.33</v>
+      </c>
+      <c r="E20">
+        <v>33.33</v>
+      </c>
+      <c r="F20">
+        <v>33.33</v>
+      </c>
+      <c r="G20">
+        <v>33.33</v>
+      </c>
+      <c r="H20">
+        <v>33.33</v>
+      </c>
+      <c r="I20">
+        <v>33.33</v>
+      </c>
+      <c r="J20">
+        <v>33.33</v>
+      </c>
+      <c r="K20">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J21">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K21">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>30.47</v>
+      </c>
+      <c r="D22">
+        <v>30.47</v>
+      </c>
+      <c r="E22">
+        <v>30.47</v>
+      </c>
+      <c r="F22">
+        <v>30.47</v>
+      </c>
+      <c r="G22">
+        <v>30.47</v>
+      </c>
+      <c r="H22">
+        <v>30.47</v>
+      </c>
+      <c r="I22">
+        <v>30.47</v>
+      </c>
+      <c r="J22" s="31">
+        <v>30.44</v>
+      </c>
+      <c r="K22">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>36.85</v>
+      </c>
+      <c r="D23">
+        <v>36.85</v>
+      </c>
+      <c r="E23">
+        <v>36.85</v>
+      </c>
+      <c r="F23">
+        <v>36.85</v>
+      </c>
+      <c r="G23">
+        <v>36.85</v>
+      </c>
+      <c r="H23">
+        <v>36.85</v>
+      </c>
+      <c r="I23">
+        <v>36.85</v>
+      </c>
+      <c r="J23" s="32">
+        <v>36.82</v>
+      </c>
+      <c r="K23">
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>21.57</v>
+      </c>
+      <c r="D24">
+        <v>21.57</v>
+      </c>
+      <c r="E24">
+        <v>21.57</v>
+      </c>
+      <c r="F24">
+        <v>21.57</v>
+      </c>
+      <c r="G24">
+        <v>21.57</v>
+      </c>
+      <c r="H24">
+        <v>21.57</v>
+      </c>
+      <c r="I24">
+        <v>21.57</v>
+      </c>
+      <c r="J24" s="33">
+        <v>21.54</v>
+      </c>
+      <c r="K24">
+        <v>21.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>20.2</v>
+      </c>
+      <c r="D25">
+        <v>20.2</v>
+      </c>
+      <c r="E25">
+        <v>20.2</v>
+      </c>
+      <c r="F25">
+        <v>20.2</v>
+      </c>
+      <c r="G25">
+        <v>20.2</v>
+      </c>
+      <c r="H25">
+        <v>20.2</v>
+      </c>
+      <c r="I25">
+        <v>20.2</v>
+      </c>
+      <c r="J25">
+        <v>20.2</v>
+      </c>
+      <c r="K25">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>30.96</v>
+      </c>
+      <c r="D26">
+        <v>30.96</v>
+      </c>
+      <c r="E26">
+        <v>30.96</v>
+      </c>
+      <c r="F26">
+        <v>30.96</v>
+      </c>
+      <c r="G26">
+        <v>30.96</v>
+      </c>
+      <c r="H26">
+        <v>30.96</v>
+      </c>
+      <c r="I26">
+        <v>30.96</v>
+      </c>
+      <c r="J26" s="34">
+        <v>30.93</v>
+      </c>
+      <c r="K26">
+        <v>30.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>30.8</v>
+      </c>
+      <c r="D27" s="8">
+        <v>30.77</v>
+      </c>
+      <c r="E27">
+        <v>30.77</v>
+      </c>
+      <c r="F27" s="12">
+        <v>30.8</v>
+      </c>
+      <c r="G27">
+        <v>30.8</v>
+      </c>
+      <c r="H27">
+        <v>30.8</v>
+      </c>
+      <c r="I27">
+        <v>30.8</v>
+      </c>
+      <c r="J27">
+        <v>30.8</v>
+      </c>
+      <c r="K27" s="69">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>21.82</v>
+      </c>
+      <c r="D28">
+        <v>21.82</v>
+      </c>
+      <c r="E28">
+        <v>21.82</v>
+      </c>
+      <c r="F28">
+        <v>21.82</v>
+      </c>
+      <c r="G28">
+        <v>21.82</v>
+      </c>
+      <c r="H28">
+        <v>21.82</v>
+      </c>
+      <c r="I28">
+        <v>21.82</v>
+      </c>
+      <c r="J28">
+        <v>21.82</v>
+      </c>
+      <c r="K28">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>21.88</v>
+      </c>
+      <c r="D29">
+        <v>21.88</v>
+      </c>
+      <c r="E29">
+        <v>21.88</v>
+      </c>
+      <c r="F29">
+        <v>21.88</v>
+      </c>
+      <c r="G29">
+        <v>21.88</v>
+      </c>
+      <c r="H29">
+        <v>21.88</v>
+      </c>
+      <c r="I29">
+        <v>21.88</v>
+      </c>
+      <c r="J29">
+        <v>21.88</v>
+      </c>
+      <c r="K29">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -1235,95 +2039,392 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>18.95</v>
+      </c>
+      <c r="D31">
+        <v>18.95</v>
+      </c>
+      <c r="E31">
+        <v>18.95</v>
+      </c>
+      <c r="F31">
+        <v>18.95</v>
+      </c>
+      <c r="G31">
+        <v>18.95</v>
+      </c>
+      <c r="H31">
+        <v>18.95</v>
+      </c>
+      <c r="I31">
+        <v>18.95</v>
+      </c>
+      <c r="J31">
+        <v>18.95</v>
+      </c>
+      <c r="K31">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>35.65</v>
+      </c>
+      <c r="D32">
+        <v>35.65</v>
+      </c>
+      <c r="E32">
+        <v>35.65</v>
+      </c>
+      <c r="F32">
+        <v>35.65</v>
+      </c>
+      <c r="G32">
+        <v>35.65</v>
+      </c>
+      <c r="H32">
+        <v>35.65</v>
+      </c>
+      <c r="I32">
+        <v>35.65</v>
+      </c>
+      <c r="J32">
+        <v>35.65</v>
+      </c>
+      <c r="K32">
+        <v>35.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>36.5</v>
+      </c>
+      <c r="D33">
+        <v>36.5</v>
+      </c>
+      <c r="E33">
+        <v>36.5</v>
+      </c>
+      <c r="F33">
+        <v>36.5</v>
+      </c>
+      <c r="G33">
+        <v>36.5</v>
+      </c>
+      <c r="H33">
+        <v>36.5</v>
+      </c>
+      <c r="I33">
+        <v>36.5</v>
+      </c>
+      <c r="J33">
+        <v>36.5</v>
+      </c>
+      <c r="K33">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D34">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E34">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F34">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G34">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H34">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I34">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J34">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K34">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>20.77</v>
+      </c>
+      <c r="D35">
+        <v>20.77</v>
+      </c>
+      <c r="E35">
+        <v>20.77</v>
+      </c>
+      <c r="F35">
+        <v>20.77</v>
+      </c>
+      <c r="G35">
+        <v>20.77</v>
+      </c>
+      <c r="H35">
+        <v>20.77</v>
+      </c>
+      <c r="I35">
+        <v>20.77</v>
+      </c>
+      <c r="J35" s="35">
+        <v>20.74</v>
+      </c>
+      <c r="K35" s="70">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>20.2</v>
+      </c>
+      <c r="D36">
+        <v>20.2</v>
+      </c>
+      <c r="E36">
+        <v>20.2</v>
+      </c>
+      <c r="F36">
+        <v>20.2</v>
+      </c>
+      <c r="G36">
+        <v>20.2</v>
+      </c>
+      <c r="H36">
+        <v>20.2</v>
+      </c>
+      <c r="I36">
+        <v>20.2</v>
+      </c>
+      <c r="J36">
+        <v>20.2</v>
+      </c>
+      <c r="K36">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>20.74</v>
+      </c>
+      <c r="D37">
+        <v>20.74</v>
+      </c>
+      <c r="E37">
+        <v>20.74</v>
+      </c>
+      <c r="F37">
+        <v>20.74</v>
+      </c>
+      <c r="G37">
+        <v>20.74</v>
+      </c>
+      <c r="H37">
+        <v>20.74</v>
+      </c>
+      <c r="I37">
+        <v>20.74</v>
+      </c>
+      <c r="J37">
+        <v>20.74</v>
+      </c>
+      <c r="K37">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>31.96</v>
+      </c>
+      <c r="D38">
+        <v>31.96</v>
+      </c>
+      <c r="E38">
+        <v>31.96</v>
+      </c>
+      <c r="F38">
+        <v>31.96</v>
+      </c>
+      <c r="G38">
+        <v>31.96</v>
+      </c>
+      <c r="H38">
+        <v>31.96</v>
+      </c>
+      <c r="I38">
+        <v>31.96</v>
+      </c>
+      <c r="J38" s="36">
+        <v>31.93</v>
+      </c>
+      <c r="K38">
+        <v>31.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>30.99</v>
+      </c>
+      <c r="D39">
+        <v>30.99</v>
+      </c>
+      <c r="E39">
+        <v>30.99</v>
+      </c>
+      <c r="F39">
+        <v>30.99</v>
+      </c>
+      <c r="G39">
+        <v>30.99</v>
+      </c>
+      <c r="H39">
+        <v>30.99</v>
+      </c>
+      <c r="I39">
+        <v>30.99</v>
+      </c>
+      <c r="J39">
+        <v>30.99</v>
+      </c>
+      <c r="K39">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>30.3</v>
+      </c>
+      <c r="D40">
+        <v>30.3</v>
+      </c>
+      <c r="E40">
+        <v>30.3</v>
+      </c>
+      <c r="F40">
+        <v>30.3</v>
+      </c>
+      <c r="G40">
+        <v>30.3</v>
+      </c>
+      <c r="H40">
+        <v>30.3</v>
+      </c>
+      <c r="I40">
+        <v>30.3</v>
+      </c>
+      <c r="J40">
+        <v>30.3</v>
+      </c>
+      <c r="K40">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>30.8</v>
+      </c>
+      <c r="D41">
+        <v>30.8</v>
+      </c>
+      <c r="E41">
+        <v>30.8</v>
+      </c>
+      <c r="F41">
+        <v>30.8</v>
+      </c>
+      <c r="G41">
+        <v>30.8</v>
+      </c>
+      <c r="H41">
+        <v>30.8</v>
+      </c>
+      <c r="I41">
+        <v>30.8</v>
+      </c>
+      <c r="J41">
+        <v>30.8</v>
+      </c>
+      <c r="K41">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1331,143 +2432,593 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>31.44</v>
+      </c>
+      <c r="D44">
+        <v>31.44</v>
+      </c>
+      <c r="E44">
+        <v>31.44</v>
+      </c>
+      <c r="F44">
+        <v>31.44</v>
+      </c>
+      <c r="G44">
+        <v>31.44</v>
+      </c>
+      <c r="H44">
+        <v>31.44</v>
+      </c>
+      <c r="I44" s="20">
+        <v>31.41</v>
+      </c>
+      <c r="J44" s="37">
+        <v>31.38</v>
+      </c>
+      <c r="K44">
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>30.4</v>
+      </c>
+      <c r="D45">
+        <v>30.4</v>
+      </c>
+      <c r="E45">
+        <v>30.4</v>
+      </c>
+      <c r="F45">
+        <v>30.4</v>
+      </c>
+      <c r="G45">
+        <v>30.4</v>
+      </c>
+      <c r="H45">
+        <v>30.4</v>
+      </c>
+      <c r="I45">
+        <v>30.4</v>
+      </c>
+      <c r="J45">
+        <v>30.4</v>
+      </c>
+      <c r="K45">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>31.96</v>
+      </c>
+      <c r="D46">
+        <v>31.96</v>
+      </c>
+      <c r="E46">
+        <v>31.96</v>
+      </c>
+      <c r="F46">
+        <v>31.96</v>
+      </c>
+      <c r="G46">
+        <v>31.96</v>
+      </c>
+      <c r="H46">
+        <v>31.96</v>
+      </c>
+      <c r="I46" s="21">
+        <v>31.95</v>
+      </c>
+      <c r="J46" s="38">
+        <v>31.92</v>
+      </c>
+      <c r="K46" s="71">
+        <v>31.89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>30.9</v>
+      </c>
+      <c r="D47">
+        <v>30.9</v>
+      </c>
+      <c r="E47">
+        <v>30.9</v>
+      </c>
+      <c r="F47">
+        <v>30.9</v>
+      </c>
+      <c r="G47">
+        <v>30.9</v>
+      </c>
+      <c r="H47">
+        <v>30.9</v>
+      </c>
+      <c r="I47">
+        <v>30.9</v>
+      </c>
+      <c r="J47" s="39">
+        <v>30.87</v>
+      </c>
+      <c r="K47" s="72">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>19.84</v>
+      </c>
+      <c r="D48">
+        <v>19.84</v>
+      </c>
+      <c r="E48">
+        <v>19.84</v>
+      </c>
+      <c r="F48">
+        <v>19.84</v>
+      </c>
+      <c r="G48">
+        <v>19.84</v>
+      </c>
+      <c r="H48">
+        <v>19.84</v>
+      </c>
+      <c r="I48">
+        <v>19.84</v>
+      </c>
+      <c r="J48">
+        <v>19.84</v>
+      </c>
+      <c r="K48">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>19.32</v>
+      </c>
+      <c r="D49">
+        <v>19.32</v>
+      </c>
+      <c r="E49">
+        <v>19.32</v>
+      </c>
+      <c r="F49">
+        <v>19.32</v>
+      </c>
+      <c r="G49">
+        <v>19.32</v>
+      </c>
+      <c r="H49">
+        <v>19.32</v>
+      </c>
+      <c r="I49">
+        <v>19.32</v>
+      </c>
+      <c r="J49">
+        <v>19.32</v>
+      </c>
+      <c r="K49">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>33.93</v>
+      </c>
+      <c r="D50">
+        <v>33.93</v>
+      </c>
+      <c r="E50">
+        <v>33.93</v>
+      </c>
+      <c r="F50">
+        <v>33.93</v>
+      </c>
+      <c r="G50">
+        <v>33.93</v>
+      </c>
+      <c r="H50">
+        <v>33.93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>21.8</v>
+      </c>
+      <c r="D51">
+        <v>21.8</v>
+      </c>
+      <c r="E51">
+        <v>21.8</v>
+      </c>
+      <c r="F51">
+        <v>21.8</v>
+      </c>
+      <c r="G51">
+        <v>21.8</v>
+      </c>
+      <c r="H51">
+        <v>21.8</v>
+      </c>
+      <c r="I51">
+        <v>21.8</v>
+      </c>
+      <c r="J51">
+        <v>21.8</v>
+      </c>
+      <c r="K51">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>32.29</v>
+      </c>
+      <c r="D52">
+        <v>32.29</v>
+      </c>
+      <c r="E52">
+        <v>32.29</v>
+      </c>
+      <c r="F52">
+        <v>32.29</v>
+      </c>
+      <c r="G52">
+        <v>32.29</v>
+      </c>
+      <c r="H52">
+        <v>32.29</v>
+      </c>
+      <c r="I52">
+        <v>32.29</v>
+      </c>
+      <c r="J52" s="40">
+        <v>30.3</v>
+      </c>
+      <c r="K52">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>30.99</v>
+      </c>
+      <c r="D53">
+        <v>30.99</v>
+      </c>
+      <c r="E53">
+        <v>30.99</v>
+      </c>
+      <c r="F53">
+        <v>30.99</v>
+      </c>
+      <c r="G53">
+        <v>30.99</v>
+      </c>
+      <c r="H53">
+        <v>30.99</v>
+      </c>
+      <c r="I53">
+        <v>30.99</v>
+      </c>
+      <c r="J53" s="41">
+        <v>30.96</v>
+      </c>
+      <c r="K53" s="73">
+        <v>30.88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>24.07</v>
+      </c>
+      <c r="D54">
+        <v>24.07</v>
+      </c>
+      <c r="E54">
+        <v>24.07</v>
+      </c>
+      <c r="F54" s="13">
+        <v>24.04</v>
+      </c>
+      <c r="G54">
+        <v>24.04</v>
+      </c>
+      <c r="H54">
+        <v>24.04</v>
+      </c>
+      <c r="I54">
+        <v>24.04</v>
+      </c>
+      <c r="J54" s="42">
+        <v>24.01</v>
+      </c>
+      <c r="K54" s="74">
+        <v>23.98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>30.9</v>
+      </c>
+      <c r="D55">
+        <v>30.9</v>
+      </c>
+      <c r="E55">
+        <v>30.9</v>
+      </c>
+      <c r="F55">
+        <v>30.9</v>
+      </c>
+      <c r="G55">
+        <v>30.9</v>
+      </c>
+      <c r="H55">
+        <v>30.9</v>
+      </c>
+      <c r="I55">
+        <v>30.9</v>
+      </c>
+      <c r="J55">
+        <v>30.9</v>
+      </c>
+      <c r="K55">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>30.9</v>
+      </c>
+      <c r="D56">
+        <v>30.9</v>
+      </c>
+      <c r="E56">
+        <v>30.9</v>
+      </c>
+      <c r="F56">
+        <v>30.9</v>
+      </c>
+      <c r="G56">
+        <v>30.9</v>
+      </c>
+      <c r="H56">
+        <v>30.9</v>
+      </c>
+      <c r="I56">
+        <v>30.9</v>
+      </c>
+      <c r="J56">
+        <v>30.9</v>
+      </c>
+      <c r="K56">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>20.37</v>
+      </c>
+      <c r="D57">
+        <v>20.37</v>
+      </c>
+      <c r="E57">
+        <v>20.37</v>
+      </c>
+      <c r="F57">
+        <v>20.37</v>
+      </c>
+      <c r="G57">
+        <v>20.37</v>
+      </c>
+      <c r="H57">
+        <v>20.37</v>
+      </c>
+      <c r="I57">
+        <v>20.37</v>
+      </c>
+      <c r="J57" s="43">
+        <v>20.34</v>
+      </c>
+      <c r="K57">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="E58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="F58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="G58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="H58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="I58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="J58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="K58">
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>21.9</v>
+      </c>
+      <c r="D59">
+        <v>21.9</v>
+      </c>
+      <c r="E59">
+        <v>21.9</v>
+      </c>
+      <c r="F59">
+        <v>21.9</v>
+      </c>
+      <c r="G59">
+        <v>21.9</v>
+      </c>
+      <c r="H59">
+        <v>21.9</v>
+      </c>
+      <c r="I59">
+        <v>21.9</v>
+      </c>
+      <c r="J59">
+        <v>21.9</v>
+      </c>
+      <c r="K59">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>60</v>
       </c>
@@ -1475,135 +3026,567 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>21.82</v>
+      </c>
+      <c r="D61">
+        <v>21.82</v>
+      </c>
+      <c r="E61">
+        <v>21.82</v>
+      </c>
+      <c r="F61">
+        <v>21.82</v>
+      </c>
+      <c r="G61">
+        <v>21.82</v>
+      </c>
+      <c r="H61">
+        <v>21.82</v>
+      </c>
+      <c r="I61" s="22">
+        <v>21.79</v>
+      </c>
+      <c r="J61" s="44">
+        <v>21.76</v>
+      </c>
+      <c r="K61">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>22.5</v>
+      </c>
+      <c r="D62">
+        <v>22.5</v>
+      </c>
+      <c r="E62">
+        <v>22.5</v>
+      </c>
+      <c r="F62">
+        <v>22.5</v>
+      </c>
+      <c r="G62">
+        <v>22.5</v>
+      </c>
+      <c r="H62">
+        <v>22.5</v>
+      </c>
+      <c r="I62">
+        <v>22.5</v>
+      </c>
+      <c r="J62">
+        <v>22.5</v>
+      </c>
+      <c r="K62">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>20.18</v>
+      </c>
+      <c r="D63">
+        <v>20.18</v>
+      </c>
+      <c r="E63">
+        <v>20.18</v>
+      </c>
+      <c r="F63">
+        <v>20.18</v>
+      </c>
+      <c r="G63">
+        <v>20.18</v>
+      </c>
+      <c r="H63">
+        <v>20.18</v>
+      </c>
+      <c r="I63">
+        <v>20.18</v>
+      </c>
+      <c r="J63">
+        <v>20.18</v>
+      </c>
+      <c r="K63">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>20.5</v>
+      </c>
+      <c r="D64">
+        <v>20.5</v>
+      </c>
+      <c r="E64">
+        <v>20.5</v>
+      </c>
+      <c r="F64">
+        <v>20.5</v>
+      </c>
+      <c r="G64">
+        <v>20.5</v>
+      </c>
+      <c r="H64">
+        <v>20.5</v>
+      </c>
+      <c r="I64">
+        <v>20.5</v>
+      </c>
+      <c r="J64">
+        <v>20.5</v>
+      </c>
+      <c r="K64">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>34.85</v>
+      </c>
+      <c r="D65">
+        <v>34.85</v>
+      </c>
+      <c r="E65">
+        <v>34.85</v>
+      </c>
+      <c r="F65" s="14">
+        <v>34.46</v>
+      </c>
+      <c r="G65">
+        <v>34.46</v>
+      </c>
+      <c r="H65">
+        <v>34.46</v>
+      </c>
+      <c r="I65">
+        <v>34.46</v>
+      </c>
+      <c r="J65" s="45">
+        <v>34.42</v>
+      </c>
+      <c r="K65">
+        <v>34.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>20.84</v>
+      </c>
+      <c r="D66">
+        <v>20.84</v>
+      </c>
+      <c r="E66">
+        <v>20.84</v>
+      </c>
+      <c r="F66">
+        <v>20.84</v>
+      </c>
+      <c r="G66">
+        <v>20.84</v>
+      </c>
+      <c r="H66">
+        <v>20.84</v>
+      </c>
+      <c r="I66">
+        <v>20.84</v>
+      </c>
+      <c r="J66">
+        <v>20.84</v>
+      </c>
+      <c r="K66">
+        <v>20.84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D67">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E67">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F67">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G67">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H67">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I67">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J67">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K67">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>20.5</v>
+      </c>
+      <c r="D68">
+        <v>20.5</v>
+      </c>
+      <c r="E68">
+        <v>20.5</v>
+      </c>
+      <c r="F68">
+        <v>20.5</v>
+      </c>
+      <c r="G68">
+        <v>20.5</v>
+      </c>
+      <c r="H68">
+        <v>20.5</v>
+      </c>
+      <c r="I68">
+        <v>20.5</v>
+      </c>
+      <c r="J68">
+        <v>20.5</v>
+      </c>
+      <c r="K68">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>21.98</v>
+      </c>
+      <c r="D69">
+        <v>21.98</v>
+      </c>
+      <c r="E69">
+        <v>21.98</v>
+      </c>
+      <c r="F69">
+        <v>21.98</v>
+      </c>
+      <c r="G69">
+        <v>21.98</v>
+      </c>
+      <c r="H69">
+        <v>21.98</v>
+      </c>
+      <c r="I69">
+        <v>21.98</v>
+      </c>
+      <c r="J69">
+        <v>21.98</v>
+      </c>
+      <c r="K69">
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>21.96</v>
+      </c>
+      <c r="D70">
+        <v>21.96</v>
+      </c>
+      <c r="E70">
+        <v>21.96</v>
+      </c>
+      <c r="F70">
+        <v>21.96</v>
+      </c>
+      <c r="G70">
+        <v>21.96</v>
+      </c>
+      <c r="H70">
+        <v>21.96</v>
+      </c>
+      <c r="I70">
+        <v>21.96</v>
+      </c>
+      <c r="J70" s="46">
+        <v>21.93</v>
+      </c>
+      <c r="K70">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>20.2</v>
+      </c>
+      <c r="D71">
+        <v>20.2</v>
+      </c>
+      <c r="E71">
+        <v>20.2</v>
+      </c>
+      <c r="F71">
+        <v>20.2</v>
+      </c>
+      <c r="G71">
+        <v>20.2</v>
+      </c>
+      <c r="H71">
+        <v>20.2</v>
+      </c>
+      <c r="I71">
+        <v>20.2</v>
+      </c>
+      <c r="J71">
+        <v>20.2</v>
+      </c>
+      <c r="K71">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>18.98</v>
+      </c>
+      <c r="D72">
+        <v>18.98</v>
+      </c>
+      <c r="E72">
+        <v>18.98</v>
+      </c>
+      <c r="F72">
+        <v>18.98</v>
+      </c>
+      <c r="G72">
+        <v>18.98</v>
+      </c>
+      <c r="H72">
+        <v>18.98</v>
+      </c>
+      <c r="I72">
+        <v>18.98</v>
+      </c>
+      <c r="J72">
+        <v>18.98</v>
+      </c>
+      <c r="K72">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D73">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E73">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="F73">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="G73">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H73">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="I73">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="J73">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="K73">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="D74">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="E74">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="F74">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="G74">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="H74">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="I74">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="J74">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="K74">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>32.99</v>
+      </c>
+      <c r="D75">
+        <v>32.99</v>
+      </c>
+      <c r="E75">
+        <v>32.99</v>
+      </c>
+      <c r="F75">
+        <v>32.99</v>
+      </c>
+      <c r="G75">
+        <v>32.99</v>
+      </c>
+      <c r="H75">
+        <v>32.99</v>
+      </c>
+      <c r="I75">
+        <v>32.99</v>
+      </c>
+      <c r="J75">
+        <v>32.99</v>
+      </c>
+      <c r="K75">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>22.17</v>
+      </c>
+      <c r="D76">
+        <v>22.17</v>
+      </c>
+      <c r="E76">
+        <v>22.17</v>
+      </c>
+      <c r="F76">
+        <v>22.17</v>
+      </c>
+      <c r="G76">
+        <v>22.17</v>
+      </c>
+      <c r="H76">
+        <v>22.17</v>
+      </c>
+      <c r="I76">
+        <v>22.17</v>
+      </c>
+      <c r="J76">
+        <v>22.17</v>
+      </c>
+      <c r="K76">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
@@ -1611,39 +3594,147 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="D78">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="E78">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F78">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="G78">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="H78">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="I78">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="J78">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="K78">
+        <v>20.170000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>20.2</v>
+      </c>
+      <c r="D79">
+        <v>20.2</v>
+      </c>
+      <c r="E79">
+        <v>20.2</v>
+      </c>
+      <c r="F79">
+        <v>20.2</v>
+      </c>
+      <c r="G79">
+        <v>20.2</v>
+      </c>
+      <c r="H79">
+        <v>20.2</v>
+      </c>
+      <c r="I79">
+        <v>20.2</v>
+      </c>
+      <c r="J79">
+        <v>20.2</v>
+      </c>
+      <c r="K79">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>30.25</v>
+      </c>
+      <c r="D80">
+        <v>30.25</v>
+      </c>
+      <c r="E80">
+        <v>30.25</v>
+      </c>
+      <c r="F80">
+        <v>30.25</v>
+      </c>
+      <c r="G80">
+        <v>30.25</v>
+      </c>
+      <c r="H80">
+        <v>30.25</v>
+      </c>
+      <c r="I80">
+        <v>30.25</v>
+      </c>
+      <c r="J80">
+        <v>30.25</v>
+      </c>
+      <c r="K80">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>32.4</v>
+      </c>
+      <c r="D81">
+        <v>32.4</v>
+      </c>
+      <c r="E81">
+        <v>32.4</v>
+      </c>
+      <c r="F81">
+        <v>32.4</v>
+      </c>
+      <c r="G81">
+        <v>32.4</v>
+      </c>
+      <c r="H81">
+        <v>32.4</v>
+      </c>
+      <c r="I81">
+        <v>32.4</v>
+      </c>
+      <c r="J81" s="47">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="K81">
+        <v>32.369999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
@@ -1651,103 +3742,427 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>20.2</v>
+      </c>
+      <c r="D83">
+        <v>20.2</v>
+      </c>
+      <c r="E83">
+        <v>20.2</v>
+      </c>
+      <c r="F83">
+        <v>20.2</v>
+      </c>
+      <c r="G83">
+        <v>20.2</v>
+      </c>
+      <c r="H83">
+        <v>20.2</v>
+      </c>
+      <c r="I83">
+        <v>20.2</v>
+      </c>
+      <c r="J83">
+        <v>20.2</v>
+      </c>
+      <c r="K83">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K84">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>20.99</v>
+      </c>
+      <c r="D85">
+        <v>20.99</v>
+      </c>
+      <c r="E85">
+        <v>20.99</v>
+      </c>
+      <c r="F85">
+        <v>20.99</v>
+      </c>
+      <c r="G85">
+        <v>20.99</v>
+      </c>
+      <c r="H85">
+        <v>20.99</v>
+      </c>
+      <c r="I85">
+        <v>20.99</v>
+      </c>
+      <c r="J85">
+        <v>20.99</v>
+      </c>
+      <c r="K85">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>20.2</v>
+      </c>
+      <c r="D86">
+        <v>20.2</v>
+      </c>
+      <c r="E86">
+        <v>20.2</v>
+      </c>
+      <c r="F86">
+        <v>20.2</v>
+      </c>
+      <c r="G86">
+        <v>20.2</v>
+      </c>
+      <c r="H86">
+        <v>20.2</v>
+      </c>
+      <c r="I86">
+        <v>20.2</v>
+      </c>
+      <c r="J86">
+        <v>20.2</v>
+      </c>
+      <c r="K86">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>20.2</v>
+      </c>
+      <c r="D87">
+        <v>20.2</v>
+      </c>
+      <c r="E87">
+        <v>20.2</v>
+      </c>
+      <c r="F87">
+        <v>20.2</v>
+      </c>
+      <c r="G87">
+        <v>20.2</v>
+      </c>
+      <c r="H87">
+        <v>20.2</v>
+      </c>
+      <c r="I87">
+        <v>20.2</v>
+      </c>
+      <c r="J87">
+        <v>20.2</v>
+      </c>
+      <c r="K87">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>31.33</v>
+      </c>
+      <c r="D88">
+        <v>31.33</v>
+      </c>
+      <c r="E88">
+        <v>31.33</v>
+      </c>
+      <c r="F88">
+        <v>31.33</v>
+      </c>
+      <c r="G88">
+        <v>31.33</v>
+      </c>
+      <c r="H88">
+        <v>31.33</v>
+      </c>
+      <c r="I88">
+        <v>31.33</v>
+      </c>
+      <c r="J88" s="48">
+        <v>31.3</v>
+      </c>
+      <c r="K88" s="75">
+        <v>31.27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>30</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>30</v>
+      </c>
+      <c r="G89">
+        <v>30</v>
+      </c>
+      <c r="H89">
+        <v>30</v>
+      </c>
+      <c r="I89">
+        <v>30</v>
+      </c>
+      <c r="J89">
+        <v>30</v>
+      </c>
+      <c r="K89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D90">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E90">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F90">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G90">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H90">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I90">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J90">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K90">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>21.14</v>
+      </c>
+      <c r="D91">
+        <v>21.14</v>
+      </c>
+      <c r="E91">
+        <v>21.14</v>
+      </c>
+      <c r="F91">
+        <v>21.14</v>
+      </c>
+      <c r="G91">
+        <v>21.14</v>
+      </c>
+      <c r="H91">
+        <v>21.14</v>
+      </c>
+      <c r="I91">
+        <v>21.14</v>
+      </c>
+      <c r="J91">
+        <v>21.14</v>
+      </c>
+      <c r="K91">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="D92">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="E92">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="F92">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="G92">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="H92">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="I92" s="23">
+        <v>19.23</v>
+      </c>
+      <c r="J92" s="49">
+        <v>19.2</v>
+      </c>
+      <c r="K92" s="76">
+        <v>19.170000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>20.2</v>
+      </c>
+      <c r="D93">
+        <v>20.2</v>
+      </c>
+      <c r="E93">
+        <v>20.2</v>
+      </c>
+      <c r="F93">
+        <v>20.2</v>
+      </c>
+      <c r="G93">
+        <v>20.2</v>
+      </c>
+      <c r="H93">
+        <v>20.2</v>
+      </c>
+      <c r="I93">
+        <v>20.2</v>
+      </c>
+      <c r="J93">
+        <v>20.2</v>
+      </c>
+      <c r="K93">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>19.5</v>
+      </c>
+      <c r="D94">
+        <v>19.5</v>
+      </c>
+      <c r="E94">
+        <v>19.5</v>
+      </c>
+      <c r="F94">
+        <v>19.5</v>
+      </c>
+      <c r="G94">
+        <v>19.5</v>
+      </c>
+      <c r="H94">
+        <v>19.5</v>
+      </c>
+      <c r="I94">
+        <v>19.5</v>
+      </c>
+      <c r="J94">
+        <v>19.5</v>
+      </c>
+      <c r="K94">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
@@ -1755,31 +4170,112 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>31.85</v>
+      </c>
+      <c r="D96">
+        <v>31.85</v>
+      </c>
+      <c r="E96">
+        <v>31.85</v>
+      </c>
+      <c r="F96">
+        <v>31.85</v>
+      </c>
+      <c r="G96">
+        <v>31.85</v>
+      </c>
+      <c r="H96">
+        <v>31.85</v>
+      </c>
+      <c r="I96">
+        <v>31.85</v>
+      </c>
+      <c r="J96">
+        <v>31.85</v>
+      </c>
+      <c r="K96">
+        <v>31.85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>21.5</v>
+      </c>
+      <c r="D97">
+        <v>21.5</v>
+      </c>
+      <c r="E97">
+        <v>21.5</v>
+      </c>
+      <c r="F97">
+        <v>21.5</v>
+      </c>
+      <c r="G97">
+        <v>21.5</v>
+      </c>
+      <c r="H97">
+        <v>21.5</v>
+      </c>
+      <c r="I97">
+        <v>21.5</v>
+      </c>
+      <c r="J97">
+        <v>21.5</v>
+      </c>
+      <c r="K97">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>21</v>
+      </c>
+      <c r="D98">
+        <v>21</v>
+      </c>
+      <c r="E98">
+        <v>21</v>
+      </c>
+      <c r="F98">
+        <v>21</v>
+      </c>
+      <c r="G98">
+        <v>21</v>
+      </c>
+      <c r="H98">
+        <v>21</v>
+      </c>
+      <c r="I98">
+        <v>21</v>
+      </c>
+      <c r="J98">
+        <v>21</v>
+      </c>
+      <c r="K98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>99</v>
       </c>
@@ -1787,31 +4283,112 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="D100">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="E100">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="F100">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="G100">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="H100">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="I100" s="24">
+        <v>20.28</v>
+      </c>
+      <c r="J100" s="50">
+        <v>20.25</v>
+      </c>
+      <c r="K100" s="77">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>22.5</v>
+      </c>
+      <c r="D101">
+        <v>22.5</v>
+      </c>
+      <c r="E101">
+        <v>22.5</v>
+      </c>
+      <c r="F101">
+        <v>22.5</v>
+      </c>
+      <c r="G101">
+        <v>22.5</v>
+      </c>
+      <c r="H101">
+        <v>22.5</v>
+      </c>
+      <c r="I101">
+        <v>22.5</v>
+      </c>
+      <c r="J101">
+        <v>22.5</v>
+      </c>
+      <c r="K101">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>21.45</v>
+      </c>
+      <c r="D102">
+        <v>21.45</v>
+      </c>
+      <c r="E102">
+        <v>21.45</v>
+      </c>
+      <c r="F102">
+        <v>21.45</v>
+      </c>
+      <c r="G102">
+        <v>21.45</v>
+      </c>
+      <c r="H102">
+        <v>21.45</v>
+      </c>
+      <c r="I102">
+        <v>21.45</v>
+      </c>
+      <c r="J102">
+        <v>21.45</v>
+      </c>
+      <c r="K102">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>103</v>
       </c>
@@ -1819,55 +4396,217 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>20.2</v>
+      </c>
+      <c r="D104">
+        <v>20.2</v>
+      </c>
+      <c r="E104">
+        <v>20.2</v>
+      </c>
+      <c r="F104">
+        <v>20.2</v>
+      </c>
+      <c r="G104">
+        <v>20.2</v>
+      </c>
+      <c r="H104">
+        <v>20.2</v>
+      </c>
+      <c r="I104">
+        <v>20.2</v>
+      </c>
+      <c r="J104">
+        <v>20.2</v>
+      </c>
+      <c r="K104">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>20.98</v>
+      </c>
+      <c r="D105">
+        <v>20.98</v>
+      </c>
+      <c r="E105">
+        <v>20.98</v>
+      </c>
+      <c r="F105">
+        <v>20.98</v>
+      </c>
+      <c r="G105">
+        <v>20.98</v>
+      </c>
+      <c r="H105">
+        <v>20.98</v>
+      </c>
+      <c r="I105">
+        <v>20.98</v>
+      </c>
+      <c r="J105">
+        <v>20.98</v>
+      </c>
+      <c r="K105">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D106">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E106">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F106">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G106">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H106">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I106">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="J106">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="K106">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>30</v>
+      </c>
+      <c r="D107">
+        <v>30</v>
+      </c>
+      <c r="E107">
+        <v>30</v>
+      </c>
+      <c r="F107">
+        <v>30</v>
+      </c>
+      <c r="G107">
+        <v>30</v>
+      </c>
+      <c r="H107">
+        <v>30</v>
+      </c>
+      <c r="I107">
+        <v>30</v>
+      </c>
+      <c r="J107">
+        <v>30</v>
+      </c>
+      <c r="K107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>30.99</v>
+      </c>
+      <c r="D108">
+        <v>30.99</v>
+      </c>
+      <c r="E108">
+        <v>30.99</v>
+      </c>
+      <c r="F108">
+        <v>30.99</v>
+      </c>
+      <c r="G108">
+        <v>30.99</v>
+      </c>
+      <c r="H108">
+        <v>30.99</v>
+      </c>
+      <c r="I108">
+        <v>30.99</v>
+      </c>
+      <c r="J108">
+        <v>30.99</v>
+      </c>
+      <c r="K108">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>22.88</v>
+      </c>
+      <c r="D109">
+        <v>22.88</v>
+      </c>
+      <c r="E109">
+        <v>22.88</v>
+      </c>
+      <c r="F109">
+        <v>22.88</v>
+      </c>
+      <c r="G109">
+        <v>22.88</v>
+      </c>
+      <c r="H109">
+        <v>22.88</v>
+      </c>
+      <c r="I109">
+        <v>22.88</v>
+      </c>
+      <c r="J109">
+        <v>22.88</v>
+      </c>
+      <c r="K109">
+        <v>22.88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>110</v>
       </c>
@@ -1875,55 +4614,217 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>30.99</v>
+      </c>
+      <c r="D111">
+        <v>30.99</v>
+      </c>
+      <c r="E111">
+        <v>30.99</v>
+      </c>
+      <c r="F111">
+        <v>30.99</v>
+      </c>
+      <c r="G111">
+        <v>30.99</v>
+      </c>
+      <c r="H111">
+        <v>30.99</v>
+      </c>
+      <c r="I111">
+        <v>30.99</v>
+      </c>
+      <c r="J111">
+        <v>30.99</v>
+      </c>
+      <c r="K111">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>30.99</v>
+      </c>
+      <c r="D112">
+        <v>30.99</v>
+      </c>
+      <c r="E112">
+        <v>30.99</v>
+      </c>
+      <c r="F112">
+        <v>30.99</v>
+      </c>
+      <c r="G112">
+        <v>30.99</v>
+      </c>
+      <c r="H112">
+        <v>30.99</v>
+      </c>
+      <c r="I112">
+        <v>30.99</v>
+      </c>
+      <c r="J112">
+        <v>30.99</v>
+      </c>
+      <c r="K112">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>23.2</v>
+      </c>
+      <c r="D113">
+        <v>23.2</v>
+      </c>
+      <c r="E113">
+        <v>23.2</v>
+      </c>
+      <c r="F113">
+        <v>23.2</v>
+      </c>
+      <c r="G113">
+        <v>23.2</v>
+      </c>
+      <c r="H113">
+        <v>23.2</v>
+      </c>
+      <c r="I113">
+        <v>23.2</v>
+      </c>
+      <c r="J113">
+        <v>23.2</v>
+      </c>
+      <c r="K113">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>33.99</v>
+      </c>
+      <c r="D114">
+        <v>33.99</v>
+      </c>
+      <c r="E114">
+        <v>33.99</v>
+      </c>
+      <c r="F114">
+        <v>33.99</v>
+      </c>
+      <c r="G114">
+        <v>33.99</v>
+      </c>
+      <c r="H114">
+        <v>33.99</v>
+      </c>
+      <c r="I114">
+        <v>33.99</v>
+      </c>
+      <c r="J114">
+        <v>33.99</v>
+      </c>
+      <c r="K114">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K115">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>23.9</v>
+      </c>
+      <c r="D116">
+        <v>23.9</v>
+      </c>
+      <c r="E116">
+        <v>23.9</v>
+      </c>
+      <c r="F116">
+        <v>23.9</v>
+      </c>
+      <c r="G116">
+        <v>23.9</v>
+      </c>
+      <c r="H116">
+        <v>23.9</v>
+      </c>
+      <c r="I116">
+        <v>23.9</v>
+      </c>
+      <c r="J116">
+        <v>23.9</v>
+      </c>
+      <c r="K116">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>117</v>
       </c>
@@ -1931,47 +4832,182 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>20.2</v>
+      </c>
+      <c r="D118">
+        <v>20.2</v>
+      </c>
+      <c r="E118">
+        <v>20.2</v>
+      </c>
+      <c r="F118">
+        <v>20.2</v>
+      </c>
+      <c r="G118">
+        <v>20.2</v>
+      </c>
+      <c r="H118">
+        <v>20.2</v>
+      </c>
+      <c r="I118">
+        <v>20.2</v>
+      </c>
+      <c r="J118">
+        <v>20.2</v>
+      </c>
+      <c r="K118">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D119">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E119">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F119">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G119">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H119">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I119">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J119">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K119">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>20.2</v>
+      </c>
+      <c r="D120">
+        <v>20.2</v>
+      </c>
+      <c r="E120">
+        <v>20.2</v>
+      </c>
+      <c r="F120">
+        <v>20.2</v>
+      </c>
+      <c r="G120">
+        <v>20.2</v>
+      </c>
+      <c r="H120">
+        <v>20.2</v>
+      </c>
+      <c r="I120">
+        <v>20.2</v>
+      </c>
+      <c r="J120">
+        <v>20.2</v>
+      </c>
+      <c r="K120">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>30.9</v>
+      </c>
+      <c r="D121">
+        <v>30.9</v>
+      </c>
+      <c r="E121">
+        <v>30.9</v>
+      </c>
+      <c r="F121">
+        <v>30.9</v>
+      </c>
+      <c r="G121">
+        <v>30.9</v>
+      </c>
+      <c r="H121">
+        <v>30.9</v>
+      </c>
+      <c r="I121">
+        <v>30.9</v>
+      </c>
+      <c r="J121">
+        <v>30.9</v>
+      </c>
+      <c r="K121">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>30.77</v>
+      </c>
+      <c r="D122">
+        <v>30.77</v>
+      </c>
+      <c r="E122">
+        <v>30.77</v>
+      </c>
+      <c r="F122">
+        <v>30.77</v>
+      </c>
+      <c r="G122">
+        <v>30.77</v>
+      </c>
+      <c r="H122">
+        <v>30.77</v>
+      </c>
+      <c r="I122" s="25">
+        <v>30.76</v>
+      </c>
+      <c r="J122" s="51">
+        <v>30.73</v>
+      </c>
+      <c r="K122" s="78">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>123</v>
       </c>
@@ -1979,7 +5015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>124</v>
       </c>
@@ -1987,111 +5023,456 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>23.97</v>
+      </c>
+      <c r="D125">
+        <v>23.97</v>
+      </c>
+      <c r="E125">
+        <v>23.97</v>
+      </c>
+      <c r="F125">
+        <v>23.97</v>
+      </c>
+      <c r="G125">
+        <v>23.97</v>
+      </c>
+      <c r="H125">
+        <v>23.97</v>
+      </c>
+      <c r="I125">
+        <v>23.97</v>
+      </c>
+      <c r="J125" s="52">
+        <v>23.94</v>
+      </c>
+      <c r="K125" s="79">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>20.9</v>
+      </c>
+      <c r="D126">
+        <v>20.9</v>
+      </c>
+      <c r="E126">
+        <v>20.9</v>
+      </c>
+      <c r="F126">
+        <v>20.9</v>
+      </c>
+      <c r="G126">
+        <v>20.9</v>
+      </c>
+      <c r="H126">
+        <v>20.9</v>
+      </c>
+      <c r="I126">
+        <v>20.9</v>
+      </c>
+      <c r="J126">
+        <v>20.9</v>
+      </c>
+      <c r="K126">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>30.34</v>
+      </c>
+      <c r="D127">
+        <v>30.34</v>
+      </c>
+      <c r="E127">
+        <v>30.34</v>
+      </c>
+      <c r="F127">
+        <v>30.34</v>
+      </c>
+      <c r="G127">
+        <v>30.34</v>
+      </c>
+      <c r="H127">
+        <v>30.34</v>
+      </c>
+      <c r="I127">
+        <v>30.34</v>
+      </c>
+      <c r="J127" s="53">
+        <v>30.31</v>
+      </c>
+      <c r="K127" s="80">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>33.33</v>
+      </c>
+      <c r="D128">
+        <v>33.33</v>
+      </c>
+      <c r="E128">
+        <v>33.33</v>
+      </c>
+      <c r="F128">
+        <v>33.33</v>
+      </c>
+      <c r="G128">
+        <v>33.33</v>
+      </c>
+      <c r="H128">
+        <v>33.33</v>
+      </c>
+      <c r="I128">
+        <v>33.33</v>
+      </c>
+      <c r="J128">
+        <v>33.33</v>
+      </c>
+      <c r="K128">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>20.99</v>
+      </c>
+      <c r="D129">
+        <v>20.99</v>
+      </c>
+      <c r="E129">
+        <v>20.99</v>
+      </c>
+      <c r="F129">
+        <v>20.99</v>
+      </c>
+      <c r="G129">
+        <v>20.99</v>
+      </c>
+      <c r="H129">
+        <v>20.99</v>
+      </c>
+      <c r="I129">
+        <v>20.99</v>
+      </c>
+      <c r="J129">
+        <v>20.99</v>
+      </c>
+      <c r="K129">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>20.79</v>
+      </c>
+      <c r="D130">
+        <v>20.79</v>
+      </c>
+      <c r="E130">
+        <v>20.79</v>
+      </c>
+      <c r="F130">
+        <v>20.79</v>
+      </c>
+      <c r="G130">
+        <v>20.79</v>
+      </c>
+      <c r="H130">
+        <v>20.79</v>
+      </c>
+      <c r="I130">
+        <v>20.79</v>
+      </c>
+      <c r="J130" s="54">
+        <v>20.76</v>
+      </c>
+      <c r="K130">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="D131">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="E131" s="10">
+        <v>31.97</v>
+      </c>
+      <c r="F131" s="15">
+        <v>30.99</v>
+      </c>
+      <c r="G131">
+        <v>30.99</v>
+      </c>
+      <c r="H131">
+        <v>30.99</v>
+      </c>
+      <c r="I131">
+        <v>30.99</v>
+      </c>
+      <c r="J131">
+        <v>30.99</v>
+      </c>
+      <c r="K131">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>36.96</v>
+      </c>
+      <c r="D132">
+        <v>36.96</v>
+      </c>
+      <c r="E132">
+        <v>36.96</v>
+      </c>
+      <c r="F132">
+        <v>36.96</v>
+      </c>
+      <c r="G132">
+        <v>36.96</v>
+      </c>
+      <c r="H132">
+        <v>36.96</v>
+      </c>
+      <c r="I132">
+        <v>36.96</v>
+      </c>
+      <c r="J132" s="55">
+        <v>32.31</v>
+      </c>
+      <c r="K132">
+        <v>32.31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>30.8</v>
+      </c>
+      <c r="D133">
+        <v>30.8</v>
+      </c>
+      <c r="E133">
+        <v>30.8</v>
+      </c>
+      <c r="F133">
+        <v>30.8</v>
+      </c>
+      <c r="G133">
+        <v>30.8</v>
+      </c>
+      <c r="H133">
+        <v>30.8</v>
+      </c>
+      <c r="I133">
+        <v>30.8</v>
+      </c>
+      <c r="J133">
+        <v>30.8</v>
+      </c>
+      <c r="K133">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>20.2</v>
+      </c>
+      <c r="D134">
+        <v>20.2</v>
+      </c>
+      <c r="E134">
+        <v>20.2</v>
+      </c>
+      <c r="F134">
+        <v>20.2</v>
+      </c>
+      <c r="G134">
+        <v>20.2</v>
+      </c>
+      <c r="H134">
+        <v>20.2</v>
+      </c>
+      <c r="I134">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>20.2</v>
+      </c>
+      <c r="D135">
+        <v>20.2</v>
+      </c>
+      <c r="E135">
+        <v>20.2</v>
+      </c>
+      <c r="F135">
+        <v>20.2</v>
+      </c>
+      <c r="G135">
+        <v>20.2</v>
+      </c>
+      <c r="H135">
+        <v>20.2</v>
+      </c>
+      <c r="I135">
+        <v>20.2</v>
+      </c>
+      <c r="J135">
+        <v>20.2</v>
+      </c>
+      <c r="K135">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>30.9</v>
+      </c>
+      <c r="D136">
+        <v>30.9</v>
+      </c>
+      <c r="E136">
+        <v>30.9</v>
+      </c>
+      <c r="F136">
+        <v>30.9</v>
+      </c>
+      <c r="G136">
+        <v>30.9</v>
+      </c>
+      <c r="H136">
+        <v>30.9</v>
+      </c>
+      <c r="I136">
+        <v>30.9</v>
+      </c>
+      <c r="J136">
+        <v>30.9</v>
+      </c>
+      <c r="K136">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>20.57</v>
+      </c>
+      <c r="D137">
+        <v>20.57</v>
+      </c>
+      <c r="E137">
+        <v>20.57</v>
+      </c>
+      <c r="F137">
+        <v>20.57</v>
+      </c>
+      <c r="G137">
+        <v>20.57</v>
+      </c>
+      <c r="H137">
+        <v>20.57</v>
+      </c>
+      <c r="I137">
+        <v>20.57</v>
+      </c>
+      <c r="J137" s="56">
+        <v>20.54</v>
+      </c>
+      <c r="K137">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>138</v>
       </c>
@@ -2099,47 +5480,182 @@
         <v>201</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>63.63</v>
+      </c>
+      <c r="D139">
+        <v>63.63</v>
+      </c>
+      <c r="E139">
+        <v>63.63</v>
+      </c>
+      <c r="F139">
+        <v>63.63</v>
+      </c>
+      <c r="G139">
+        <v>63.63</v>
+      </c>
+      <c r="H139">
+        <v>63.63</v>
+      </c>
+      <c r="I139">
+        <v>63.63</v>
+      </c>
+      <c r="J139">
+        <v>63.63</v>
+      </c>
+      <c r="K139">
+        <v>63.63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>30.99</v>
+      </c>
+      <c r="D140">
+        <v>30.99</v>
+      </c>
+      <c r="E140">
+        <v>30.99</v>
+      </c>
+      <c r="F140">
+        <v>30.99</v>
+      </c>
+      <c r="G140">
+        <v>30.99</v>
+      </c>
+      <c r="H140">
+        <v>30.99</v>
+      </c>
+      <c r="I140">
+        <v>30.99</v>
+      </c>
+      <c r="J140">
+        <v>30.99</v>
+      </c>
+      <c r="K140">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>35.99</v>
+      </c>
+      <c r="D141">
+        <v>35.99</v>
+      </c>
+      <c r="E141">
+        <v>35.99</v>
+      </c>
+      <c r="F141">
+        <v>35.99</v>
+      </c>
+      <c r="G141">
+        <v>35.99</v>
+      </c>
+      <c r="H141">
+        <v>35.99</v>
+      </c>
+      <c r="I141">
+        <v>35.99</v>
+      </c>
+      <c r="J141">
+        <v>35.99</v>
+      </c>
+      <c r="K141">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>26.97</v>
+      </c>
+      <c r="D142">
+        <v>26.97</v>
+      </c>
+      <c r="E142">
+        <v>26.97</v>
+      </c>
+      <c r="F142" s="16">
+        <v>23.9</v>
+      </c>
+      <c r="G142">
+        <v>23.9</v>
+      </c>
+      <c r="H142">
+        <v>23.9</v>
+      </c>
+      <c r="I142">
+        <v>23.9</v>
+      </c>
+      <c r="J142">
+        <v>23.9</v>
+      </c>
+      <c r="K142">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>22.08</v>
+      </c>
+      <c r="D143">
+        <v>22.08</v>
+      </c>
+      <c r="E143">
+        <v>22.08</v>
+      </c>
+      <c r="F143">
+        <v>22.08</v>
+      </c>
+      <c r="G143">
+        <v>22.08</v>
+      </c>
+      <c r="H143">
+        <v>22.08</v>
+      </c>
+      <c r="I143">
+        <v>22.08</v>
+      </c>
+      <c r="J143">
+        <v>22.08</v>
+      </c>
+      <c r="K143">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>144</v>
       </c>
@@ -2147,31 +5663,112 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>30.91</v>
+      </c>
+      <c r="D145">
+        <v>30.91</v>
+      </c>
+      <c r="E145">
+        <v>30.91</v>
+      </c>
+      <c r="F145">
+        <v>30.91</v>
+      </c>
+      <c r="G145">
+        <v>30.91</v>
+      </c>
+      <c r="H145">
+        <v>30.91</v>
+      </c>
+      <c r="I145" s="26">
+        <v>30.9</v>
+      </c>
+      <c r="J145">
+        <v>30.9</v>
+      </c>
+      <c r="K145">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>23.18</v>
+      </c>
+      <c r="D146">
+        <v>23.18</v>
+      </c>
+      <c r="E146">
+        <v>23.18</v>
+      </c>
+      <c r="F146">
+        <v>23.18</v>
+      </c>
+      <c r="G146">
+        <v>23.18</v>
+      </c>
+      <c r="H146">
+        <v>23.18</v>
+      </c>
+      <c r="I146">
+        <v>23.18</v>
+      </c>
+      <c r="J146">
+        <v>23.18</v>
+      </c>
+      <c r="K146">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>30.9</v>
+      </c>
+      <c r="D147">
+        <v>30.9</v>
+      </c>
+      <c r="E147">
+        <v>30.9</v>
+      </c>
+      <c r="F147" s="17">
+        <v>30.3</v>
+      </c>
+      <c r="G147">
+        <v>30.3</v>
+      </c>
+      <c r="H147">
+        <v>30.3</v>
+      </c>
+      <c r="I147">
+        <v>30.3</v>
+      </c>
+      <c r="J147">
+        <v>30.3</v>
+      </c>
+      <c r="K147">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>148</v>
       </c>
@@ -2179,15 +5776,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>21.07</v>
+      </c>
+      <c r="D149">
+        <v>21.07</v>
+      </c>
+      <c r="E149" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="F149">
+        <v>20.2</v>
+      </c>
+      <c r="G149">
+        <v>20.2</v>
+      </c>
+      <c r="H149">
+        <v>20.2</v>
+      </c>
+      <c r="I149">
+        <v>20.2</v>
+      </c>
+      <c r="J149">
+        <v>20.2</v>
+      </c>
+      <c r="K149">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>150</v>
       </c>
@@ -2195,39 +5819,147 @@
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>33.33</v>
+      </c>
+      <c r="D151">
+        <v>33.33</v>
+      </c>
+      <c r="E151">
+        <v>33.33</v>
+      </c>
+      <c r="F151">
+        <v>33.33</v>
+      </c>
+      <c r="G151">
+        <v>33.33</v>
+      </c>
+      <c r="H151">
+        <v>33.33</v>
+      </c>
+      <c r="I151">
+        <v>33.33</v>
+      </c>
+      <c r="J151">
+        <v>33.33</v>
+      </c>
+      <c r="K151">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="D152">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="E152">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="F152">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="G152">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="H152">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="I152">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="J152">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="K152">
+        <v>38.340000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>36.32</v>
+      </c>
+      <c r="D153">
+        <v>36.32</v>
+      </c>
+      <c r="E153">
+        <v>36.32</v>
+      </c>
+      <c r="F153">
+        <v>36.32</v>
+      </c>
+      <c r="G153">
+        <v>36.32</v>
+      </c>
+      <c r="H153">
+        <v>36.32</v>
+      </c>
+      <c r="I153">
+        <v>36.32</v>
+      </c>
+      <c r="J153">
+        <v>36.32</v>
+      </c>
+      <c r="K153">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D154">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E154">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F154">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G154">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H154">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I154">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J154">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="K154">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>155</v>
       </c>
@@ -2235,371 +5967,1245 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>20.2</v>
+      </c>
+      <c r="D156">
+        <v>20.2</v>
+      </c>
+      <c r="E156">
+        <v>20.2</v>
+      </c>
+      <c r="F156">
+        <v>20.2</v>
+      </c>
+      <c r="G156">
+        <v>20.2</v>
+      </c>
+      <c r="H156">
+        <v>20.2</v>
+      </c>
+      <c r="I156">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>39.24</v>
+      </c>
+      <c r="D157">
+        <v>39.24</v>
+      </c>
+      <c r="E157">
+        <v>39.24</v>
+      </c>
+      <c r="F157">
+        <v>39.24</v>
+      </c>
+      <c r="G157">
+        <v>39.24</v>
+      </c>
+      <c r="H157">
+        <v>39.24</v>
+      </c>
+      <c r="I157">
+        <v>39.24</v>
+      </c>
+      <c r="J157" s="57">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K157">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>39.92</v>
+      </c>
+      <c r="D158">
+        <v>39.92</v>
+      </c>
+      <c r="E158">
+        <v>39.92</v>
+      </c>
+      <c r="F158">
+        <v>39.92</v>
+      </c>
+      <c r="G158">
+        <v>39.92</v>
+      </c>
+      <c r="H158">
+        <v>39.92</v>
+      </c>
+      <c r="I158" s="27">
+        <v>39.89</v>
+      </c>
+      <c r="J158" s="58">
+        <v>39.86</v>
+      </c>
+      <c r="K158" s="81">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>35.47</v>
+      </c>
+      <c r="D159">
+        <v>35.47</v>
+      </c>
+      <c r="E159">
+        <v>35.47</v>
+      </c>
+      <c r="F159">
+        <v>35.47</v>
+      </c>
+      <c r="G159">
+        <v>35.47</v>
+      </c>
+      <c r="H159">
+        <v>35.47</v>
+      </c>
+      <c r="I159">
+        <v>35.47</v>
+      </c>
+      <c r="J159" s="59">
+        <v>35.44</v>
+      </c>
+      <c r="K159" s="82">
+        <v>35.380000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>31.2</v>
+      </c>
+      <c r="D160">
+        <v>31.2</v>
+      </c>
+      <c r="E160">
+        <v>31.2</v>
+      </c>
+      <c r="F160">
+        <v>31.2</v>
+      </c>
+      <c r="G160">
+        <v>31.2</v>
+      </c>
+      <c r="H160" s="18">
+        <v>31.21</v>
+      </c>
+      <c r="I160">
+        <v>31.21</v>
+      </c>
+      <c r="J160" s="60">
+        <v>31.17</v>
+      </c>
+      <c r="K160">
+        <v>31.17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>21.09</v>
+      </c>
+      <c r="D161">
+        <v>21.09</v>
+      </c>
+      <c r="E161">
+        <v>21.09</v>
+      </c>
+      <c r="F161">
+        <v>21.09</v>
+      </c>
+      <c r="G161">
+        <v>21.09</v>
+      </c>
+      <c r="H161">
+        <v>21.09</v>
+      </c>
+      <c r="I161">
+        <v>21.09</v>
+      </c>
+      <c r="J161" s="61">
+        <v>21.05</v>
+      </c>
+      <c r="K161">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>20.13</v>
+      </c>
+      <c r="D162">
+        <v>20.13</v>
+      </c>
+      <c r="E162">
+        <v>20.13</v>
+      </c>
+      <c r="F162">
+        <v>20.13</v>
+      </c>
+      <c r="G162">
+        <v>20.13</v>
+      </c>
+      <c r="H162">
+        <v>20.13</v>
+      </c>
+      <c r="I162">
+        <v>20.13</v>
+      </c>
+      <c r="J162" s="62">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K162">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>30.28</v>
+      </c>
+      <c r="D163" s="9">
+        <v>30.2</v>
+      </c>
+      <c r="E163">
+        <v>30.2</v>
+      </c>
+      <c r="F163">
+        <v>30.2</v>
+      </c>
+      <c r="G163">
+        <v>30.2</v>
+      </c>
+      <c r="H163">
+        <v>30.2</v>
+      </c>
+      <c r="I163">
+        <v>30.2</v>
+      </c>
+      <c r="J163">
+        <v>30.2</v>
+      </c>
+      <c r="K163">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>21.35</v>
+      </c>
+      <c r="D164">
+        <v>21.35</v>
+      </c>
+      <c r="E164">
+        <v>21.35</v>
+      </c>
+      <c r="F164">
+        <v>21.35</v>
+      </c>
+      <c r="G164">
+        <v>21.35</v>
+      </c>
+      <c r="H164">
+        <v>21.35</v>
+      </c>
+      <c r="I164">
+        <v>21.35</v>
+      </c>
+      <c r="J164">
+        <v>21.35</v>
+      </c>
+      <c r="K164">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>30</v>
+      </c>
+      <c r="D165">
+        <v>30</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165">
+        <v>30</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="I165">
+        <v>30</v>
+      </c>
+      <c r="J165">
+        <v>30</v>
+      </c>
+      <c r="K165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>31.24</v>
+      </c>
+      <c r="D166">
+        <v>31.24</v>
+      </c>
+      <c r="E166">
+        <v>31.24</v>
+      </c>
+      <c r="F166">
+        <v>31.24</v>
+      </c>
+      <c r="G166">
+        <v>31.24</v>
+      </c>
+      <c r="H166">
+        <v>31.24</v>
+      </c>
+      <c r="I166">
+        <v>31.24</v>
+      </c>
+      <c r="J166" s="63">
+        <v>31.21</v>
+      </c>
+      <c r="K166">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>20.96</v>
+      </c>
+      <c r="D167">
+        <v>20.96</v>
+      </c>
+      <c r="E167">
+        <v>20.96</v>
+      </c>
+      <c r="F167">
+        <v>20.96</v>
+      </c>
+      <c r="G167">
+        <v>20.96</v>
+      </c>
+      <c r="H167">
+        <v>20.96</v>
+      </c>
+      <c r="I167">
+        <v>20.96</v>
+      </c>
+      <c r="J167">
+        <v>20.96</v>
+      </c>
+      <c r="K167">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>30.3</v>
+      </c>
+      <c r="D168">
+        <v>30.3</v>
+      </c>
+      <c r="E168">
+        <v>30.3</v>
+      </c>
+      <c r="F168">
+        <v>30.3</v>
+      </c>
+      <c r="G168">
+        <v>30.3</v>
+      </c>
+      <c r="H168">
+        <v>30.3</v>
+      </c>
+      <c r="I168">
+        <v>30.3</v>
+      </c>
+      <c r="J168">
+        <v>30.3</v>
+      </c>
+      <c r="K168">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>21.88</v>
+      </c>
+      <c r="D169">
+        <v>21.88</v>
+      </c>
+      <c r="E169">
+        <v>21.88</v>
+      </c>
+      <c r="F169">
+        <v>21.88</v>
+      </c>
+      <c r="G169">
+        <v>21.88</v>
+      </c>
+      <c r="H169">
+        <v>21.88</v>
+      </c>
+      <c r="I169">
+        <v>21.88</v>
+      </c>
+      <c r="J169" s="64">
+        <v>20.5</v>
+      </c>
+      <c r="K169" s="83">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>23.2</v>
+      </c>
+      <c r="D170">
+        <v>23.2</v>
+      </c>
+      <c r="E170">
+        <v>23.2</v>
+      </c>
+      <c r="F170">
+        <v>23.2</v>
+      </c>
+      <c r="G170">
+        <v>23.2</v>
+      </c>
+      <c r="H170">
+        <v>23.2</v>
+      </c>
+      <c r="I170">
+        <v>23.2</v>
+      </c>
+      <c r="J170">
+        <v>23.2</v>
+      </c>
+      <c r="K170">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>30</v>
+      </c>
+      <c r="D171">
+        <v>30</v>
+      </c>
+      <c r="E171">
+        <v>30</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+      <c r="G171">
+        <v>30</v>
+      </c>
+      <c r="H171">
+        <v>30</v>
+      </c>
+      <c r="I171">
+        <v>30</v>
+      </c>
+      <c r="J171">
+        <v>30</v>
+      </c>
+      <c r="K171">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="C172">
+        <v>30.99</v>
+      </c>
+      <c r="D172">
+        <v>30.99</v>
+      </c>
+      <c r="E172">
+        <v>30.99</v>
+      </c>
+      <c r="F172">
+        <v>30.99</v>
+      </c>
+      <c r="G172">
+        <v>30.99</v>
+      </c>
+      <c r="H172">
+        <v>30.99</v>
+      </c>
+      <c r="I172">
+        <v>30.99</v>
+      </c>
+      <c r="J172">
+        <v>30.99</v>
+      </c>
+      <c r="K172">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="C173">
+        <v>20.2</v>
+      </c>
+      <c r="D173">
+        <v>20.2</v>
+      </c>
+      <c r="E173">
+        <v>20.2</v>
+      </c>
+      <c r="F173">
+        <v>20.2</v>
+      </c>
+      <c r="G173">
+        <v>20.2</v>
+      </c>
+      <c r="H173">
+        <v>20.2</v>
+      </c>
+      <c r="I173">
+        <v>20.2</v>
+      </c>
+      <c r="J173">
+        <v>20.2</v>
+      </c>
+      <c r="K173">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>32.08</v>
+      </c>
+      <c r="D176">
+        <v>32.08</v>
+      </c>
+      <c r="E176">
+        <v>32.08</v>
+      </c>
+      <c r="F176">
+        <v>32.08</v>
+      </c>
+      <c r="G176">
+        <v>32.08</v>
+      </c>
+      <c r="H176">
+        <v>32.08</v>
+      </c>
+      <c r="I176">
+        <v>32.08</v>
+      </c>
+      <c r="J176" s="65">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="K176" s="84">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>21.43</v>
+      </c>
+      <c r="D178">
+        <v>21.43</v>
+      </c>
+      <c r="E178">
+        <v>21.43</v>
+      </c>
+      <c r="F178">
+        <v>21.43</v>
+      </c>
+      <c r="G178">
+        <v>21.43</v>
+      </c>
+      <c r="H178">
+        <v>21.43</v>
+      </c>
+      <c r="I178" s="28">
+        <v>21.4</v>
+      </c>
+      <c r="J178" s="66">
+        <v>21.37</v>
+      </c>
+      <c r="K178" s="85">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>31.13</v>
+      </c>
+      <c r="D179">
+        <v>31.13</v>
+      </c>
+      <c r="E179">
+        <v>31.13</v>
+      </c>
+      <c r="F179">
+        <v>31.13</v>
+      </c>
+      <c r="G179">
+        <v>31.13</v>
+      </c>
+      <c r="H179">
+        <v>31.13</v>
+      </c>
+      <c r="I179">
+        <v>31.13</v>
+      </c>
+      <c r="J179" s="67">
+        <v>31.1</v>
+      </c>
+      <c r="K179" s="86">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="C182">
+        <v>21.45</v>
+      </c>
+      <c r="D182">
+        <v>21.45</v>
+      </c>
+      <c r="E182">
+        <v>21.45</v>
+      </c>
+      <c r="F182">
+        <v>21.45</v>
+      </c>
+      <c r="G182">
+        <v>21.45</v>
+      </c>
+      <c r="H182">
+        <v>21.45</v>
+      </c>
+      <c r="I182">
+        <v>21.45</v>
+      </c>
+      <c r="J182">
+        <v>21.45</v>
+      </c>
+      <c r="K182">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>31.9</v>
+      </c>
+      <c r="D183">
+        <v>31.9</v>
+      </c>
+      <c r="E183">
+        <v>31.9</v>
+      </c>
+      <c r="F183">
+        <v>31.9</v>
+      </c>
+      <c r="G183">
+        <v>31.9</v>
+      </c>
+      <c r="H183">
+        <v>31.9</v>
+      </c>
+      <c r="I183">
+        <v>31.9</v>
+      </c>
+      <c r="J183">
+        <v>31.9</v>
+      </c>
+      <c r="K183">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="D186">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E186">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="F186">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G186">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="H186">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I186">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="J186">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="K186">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="C187">
+        <v>30.97</v>
+      </c>
+      <c r="D187">
+        <v>30.97</v>
+      </c>
+      <c r="E187">
+        <v>30.97</v>
+      </c>
+      <c r="F187">
+        <v>30.97</v>
+      </c>
+      <c r="G187">
+        <v>30.97</v>
+      </c>
+      <c r="H187">
+        <v>30.97</v>
+      </c>
+      <c r="I187">
+        <v>30.97</v>
+      </c>
+      <c r="J187">
+        <v>30.97</v>
+      </c>
+      <c r="K187">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>30.99</v>
+      </c>
+      <c r="D189">
+        <v>30.99</v>
+      </c>
+      <c r="E189">
+        <v>30.99</v>
+      </c>
+      <c r="F189">
+        <v>30.99</v>
+      </c>
+      <c r="G189">
+        <v>30.99</v>
+      </c>
+      <c r="H189">
+        <v>30.99</v>
+      </c>
+      <c r="I189">
+        <v>30.99</v>
+      </c>
+      <c r="J189">
+        <v>30.99</v>
+      </c>
+      <c r="K189">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>20.2</v>
+      </c>
+      <c r="D190">
+        <v>20.2</v>
+      </c>
+      <c r="E190">
+        <v>20.2</v>
+      </c>
+      <c r="F190">
+        <v>20.2</v>
+      </c>
+      <c r="G190">
+        <v>20.2</v>
+      </c>
+      <c r="H190">
+        <v>20.2</v>
+      </c>
+      <c r="I190">
+        <v>20.2</v>
+      </c>
+      <c r="J190">
+        <v>20.2</v>
+      </c>
+      <c r="K190">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="C192">
+        <v>30.99</v>
+      </c>
+      <c r="D192">
+        <v>30.99</v>
+      </c>
+      <c r="E192">
+        <v>30.99</v>
+      </c>
+      <c r="F192">
+        <v>30.99</v>
+      </c>
+      <c r="G192">
+        <v>30.99</v>
+      </c>
+      <c r="H192">
+        <v>30.99</v>
+      </c>
+      <c r="I192">
+        <v>30.99</v>
+      </c>
+      <c r="J192">
+        <v>30.99</v>
+      </c>
+      <c r="K192">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="C193">
+        <v>22.82</v>
+      </c>
+      <c r="D193">
+        <v>22.82</v>
+      </c>
+      <c r="E193">
+        <v>22.82</v>
+      </c>
+      <c r="F193">
+        <v>22.82</v>
+      </c>
+      <c r="G193">
+        <v>22.82</v>
+      </c>
+      <c r="H193">
+        <v>22.82</v>
+      </c>
+      <c r="I193">
+        <v>22.82</v>
+      </c>
+      <c r="J193">
+        <v>22.82</v>
+      </c>
+      <c r="K193">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>30.3</v>
+      </c>
+      <c r="D194">
+        <v>30.3</v>
+      </c>
+      <c r="E194">
+        <v>30.3</v>
+      </c>
+      <c r="F194">
+        <v>30.3</v>
+      </c>
+      <c r="G194">
+        <v>30.3</v>
+      </c>
+      <c r="H194">
+        <v>30.3</v>
+      </c>
+      <c r="I194">
+        <v>30.3</v>
+      </c>
+      <c r="J194">
+        <v>30.3</v>
+      </c>
+      <c r="K194">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>30.1</v>
+      </c>
+      <c r="D199">
+        <v>30.1</v>
+      </c>
+      <c r="E199">
+        <v>30.1</v>
+      </c>
+      <c r="F199">
+        <v>30.1</v>
+      </c>
+      <c r="G199">
+        <v>30.1</v>
+      </c>
+      <c r="H199">
+        <v>30.1</v>
+      </c>
+      <c r="I199">
+        <v>30.1</v>
+      </c>
+      <c r="J199">
+        <v>30.1</v>
+      </c>
+      <c r="K199">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
+      <c r="C200">
+        <v>21.8</v>
+      </c>
+      <c r="D200">
+        <v>21.8</v>
+      </c>
+      <c r="E200">
+        <v>21.8</v>
+      </c>
+      <c r="F200">
+        <v>21.8</v>
+      </c>
+      <c r="G200">
+        <v>21.8</v>
+      </c>
+      <c r="H200">
+        <v>21.8</v>
+      </c>
+      <c r="I200">
+        <v>21.8</v>
+      </c>
+      <c r="J200" s="68">
+        <v>21.77</v>
+      </c>
+      <c r="K200" s="87">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="88" t="s">
+        <v>211</v>
       </c>
       <c r="B201" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>201</v>
       </c>
     </row>
